--- a/Project Tracking_SWP391_Group5.xlsx
+++ b/Project Tracking_SWP391_Group5.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\SWP391_PROJECT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Documents\GitHub\SWP391\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E16FDE-586E-4F8F-A081-4ADED5F13DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50AA700-717E-453A-868E-C093D500FE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1123,61 +1123,61 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="5" builtinId="8"/>
@@ -1199,54 +1199,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -1317,10 +1269,27 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1348,27 +1317,10 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1504,10 +1456,27 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1533,6 +1502,37 @@
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1657,12 +1657,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB709405-408B-4AB3-9EA2-8F0C0123E9A3}" name="Table_14" displayName="Table_14" ref="B8:E13" headerRowDxfId="9" dataDxfId="16" totalsRowDxfId="8" headerRowBorderDxfId="14" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DB709405-408B-4AB3-9EA2-8F0C0123E9A3}" name="Table_14" displayName="Table_14" ref="B8:E13" headerRowDxfId="16" dataDxfId="14" totalsRowDxfId="12" headerRowBorderDxfId="15" tableBorderDxfId="13">
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Full name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student ID" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Total LOC" dataDxfId="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Full name" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Student ID" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Total LOC" dataDxfId="8">
       <calculatedColumnFormula>SUMIF('[1]Iteration 1'!$H$6:$H$33,C9,'[1]Iteration 1'!$K$6:$K$33)+SUMIF('[1]Iteration 2'!$H$6:$H$19,C9,'[1]Iteration 2'!$K$6:$K$19)+SUMIF('[1]Iteration 3'!$H$6:$H$23,C9,'[1]Iteration 3'!$K$6:$K$23)+SUMIF('[1]Iteration 4'!$H$6:$H$15,C9,'[1]Iteration 4'!$K$6:$K$15)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1671,11 +1671,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE23527C-97EB-44B2-947F-8E827FAABFAA}" name="Table_25" displayName="Table_25" ref="G8:I14" headerRowDxfId="1" dataDxfId="7" totalsRowDxfId="0" headerRowBorderDxfId="5" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CE23527C-97EB-44B2-947F-8E827FAABFAA}" name="Table_25" displayName="Table_25" ref="G8:I14" headerRowDxfId="7" dataDxfId="5" totalsRowDxfId="3" headerRowBorderDxfId="6" tableBorderDxfId="4">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Field" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Value" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Field" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Value" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Infomation-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1902,244 +1902,244 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
       <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="32"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="31"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="31"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="35" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="53" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="53" t="s">
         <v>75</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="31"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="44"/>
+      <c r="B8" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="45" t="s">
+      <c r="F8" s="43"/>
+      <c r="G8" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="47" t="s">
+      <c r="I8" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="31"/>
+      <c r="J8" s="44"/>
     </row>
     <row r="9" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="48">
+      <c r="A9" s="44"/>
+      <c r="B9" s="35">
         <v>1</v>
       </c>
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="48">
+      <c r="E9" s="36"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="35">
         <v>1</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="49"/>
-      <c r="J9" s="31"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="44"/>
     </row>
     <row r="10" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
-      <c r="B10" s="48">
+      <c r="A10" s="44"/>
+      <c r="B10" s="35">
         <v>2</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="48">
+      <c r="E10" s="36"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="35">
         <v>2</v>
       </c>
-      <c r="H10" s="44" t="s">
+      <c r="H10" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="I10" s="55" t="s">
+      <c r="I10" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="J10" s="31"/>
+      <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
-      <c r="B11" s="48">
+      <c r="A11" s="44"/>
+      <c r="B11" s="35">
         <v>3</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="48">
+      <c r="E11" s="36"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="35">
         <v>3</v>
       </c>
-      <c r="H11" s="44" t="s">
+      <c r="H11" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="31"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31"/>
-      <c r="B12" s="48">
+      <c r="A12" s="44"/>
+      <c r="B12" s="35">
         <v>4</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="48">
+      <c r="E12" s="36"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="35">
         <v>4</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I12" s="53"/>
-      <c r="J12" s="31"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
-      <c r="B13" s="50">
+      <c r="A13" s="44"/>
+      <c r="B13" s="37">
         <v>5</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="48">
+      <c r="E13" s="39"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="35">
         <v>5</v>
       </c>
-      <c r="H13" s="44" t="s">
+      <c r="H13" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="53"/>
-      <c r="J13" s="31"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="30"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="50">
+      <c r="F14" s="44"/>
+      <c r="G14" s="37">
         <v>6</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="31"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
@@ -2387,9 +2387,9 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B27:B28"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2504,7 +2504,7 @@
         <v>63</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="26"/>
@@ -2528,7 +2528,7 @@
         <v>63</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
@@ -2552,7 +2552,7 @@
         <v>63</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H9" s="28"/>
       <c r="I9" s="28"/>
